--- a/Rleased/BOM/H3BR20.xlsx
+++ b/Rleased/BOM/H3BR20.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\HEXABITZ\Modules\Hardware\Modules Hardware Design\H3BR2x\Rleased\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HEXABITZ\Modules\Hardware\Modules Hardware Design\H3BR2x\Rleased\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C472B4B-7A7F-4F93-BFDE-BEFE2E2508A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0465CD47-FDFF-4DD8-B4FF-DC7C1F0E2C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="H21R00" sheetId="1" r:id="rId1"/>
+    <sheet name="H3BR20" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -391,7 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,22 +933,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="70.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="70.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="84" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
     <col min="7" max="7" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:7" ht="46.2" x14ac:dyDescent="0.85">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9" t="s">
@@ -960,7 +960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -969,7 +969,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -986,7 +986,7 @@
       <c r="F4" s="21"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1003,7 +1003,7 @@
       <c r="F5" s="24"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="F6" s="27"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>21</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>26</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>59</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>64</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>66</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>67</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>74</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>75</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>76</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>36</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>78</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>77</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>42</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>48</v>
       </c>

--- a/Rleased/BOM/H3BR20.xlsx
+++ b/Rleased/BOM/H3BR20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HEXABITZ\Modules\Hardware\Modules Hardware Design\H3BR2x\Rleased\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0465CD47-FDFF-4DD8-B4FF-DC7C1F0E2C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BE26E5-0347-44DE-9134-15B4C3FABB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H3BR20" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
   <si>
     <t>Description</t>
   </si>
@@ -199,9 +199,6 @@
     <t>Hexabitz Modules</t>
   </si>
   <si>
-    <t>ERJ-3GEYJ270V</t>
-  </si>
-  <si>
     <t xml:space="preserve">2-Digit 7-Segment Display (H3BR20) </t>
   </si>
   <si>
@@ -223,15 +220,9 @@
     <t>R5, R7, R10, R12, R14, R17, R19, R21</t>
   </si>
   <si>
-    <t>100 OHM 1% Yageo Thick Film Resistors-smd</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
-    <t>R3 , R4, R6, R8, R9, R11, R13, R15, R16, R18, R20</t>
-  </si>
-  <si>
     <t>https://octopart.com/rc0402fr-0710kl-yageo-55458461?r=sp</t>
   </si>
   <si>
@@ -274,18 +265,57 @@
     <t>https://octopart.com/ltd-6940hr-lite-on-2440736?r=sp</t>
   </si>
   <si>
-    <t>Led Display, 2-DIG, Hi-eff Red, 0.56"H, 635NM, 2.0V, 2.4MCD, Rhdp</t>
+    <t>Q1, Q2, Q3, Q5, Q6, Q8, Q9, Q10</t>
+  </si>
+  <si>
+    <t>Trans GP BJT PNP 40V 0.2A 330mW Automotive 3-Pin SOT-23 T/R</t>
+  </si>
+  <si>
+    <t>Infineon</t>
+  </si>
+  <si>
+    <t>MMBT3906LT1HTSA1</t>
+  </si>
+  <si>
+    <t>https://octopart.com/mmbt3906lt1htsa1-infineon-21387160?r=sp</t>
+  </si>
+  <si>
+    <t>Transistor, Bipolar, Si, NPN, General Purpose, VCEO 40VDC, IC 200mA, PD 225mW, SOT-23</t>
+  </si>
+  <si>
+    <t>MMBT3904LT1G</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>https://octopart.com/mmbt3904lt1g-on+semiconductor-3280?r=sp</t>
+  </si>
+  <si>
+    <t>Q4, Q7</t>
+  </si>
+  <si>
+    <t>Numeric Red 7-Segment 2 Character Common Cathode 2V 20mA - 0.56 inch - 18-DIP</t>
+  </si>
+  <si>
+    <t>RC0402FR-07100RL</t>
+  </si>
+  <si>
+    <t>100 OHM 1% Yageo Thick Film Resistors-smd 0402</t>
+  </si>
+  <si>
+    <t>R3 ,R4, R6, R8, R9, R11, R13, R15, R16, R18, R20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -293,7 +323,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -304,21 +334,21 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -331,7 +361,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -352,7 +382,7 @@
     <font>
       <b/>
       <sz val="36"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -375,8 +405,135 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,8 +552,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -469,10 +799,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -532,6 +1010,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -553,13 +1034,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="25" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="28" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="31" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="34" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="26" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="29" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="32" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="35" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1 2" xfId="37" xr:uid="{B25A1A21-3695-4D6C-A4C9-7B0E99729476}"/>
+    <cellStyle name="60% - Accent2 2" xfId="38" xr:uid="{980E3239-00C3-405C-9107-561A2CE11DE8}"/>
+    <cellStyle name="60% - Accent3 2" xfId="39" xr:uid="{5245F621-01EC-41AF-9137-03B1352287E4}"/>
+    <cellStyle name="60% - Accent4 2" xfId="40" xr:uid="{6F6DBE3A-B7DF-4FD4-BA36-56BD43E25716}"/>
+    <cellStyle name="60% - Accent5 2" xfId="41" xr:uid="{7E652C67-5ABE-49B3-989B-F24FCC7A0D38}"/>
+    <cellStyle name="60% - Accent6 2" xfId="42" xr:uid="{E4AE1A21-CBAE-44D5-A978-AE9BE04AB7BF}"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="24" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="27" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="30" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="33" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="36" xr:uid="{232CC50A-634F-4D19-A2A6-1BA4C8F85397}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -931,24 +1450,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G22"/>
+  <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="70.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69921875" customWidth="1"/>
+    <col min="2" max="2" width="70.59765625" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="84" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" customWidth="1"/>
     <col min="7" max="7" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="46.2" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:7" ht="45.6" x14ac:dyDescent="0.75">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9" t="s">
@@ -960,7 +1479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -969,7 +1488,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -979,14 +1498,14 @@
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="22">
         <v>0</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -996,29 +1515,29 @@
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="23">
         <v>44915</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1038,7 +1557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>21</v>
       </c>
@@ -1058,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>26</v>
       </c>
@@ -1078,49 +1597,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>61</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>54</v>
@@ -1138,49 +1657,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>70</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F14" s="16">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F15" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>53</v>
@@ -1198,9 +1717,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>52</v>
@@ -1218,7 +1737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>36</v>
       </c>
@@ -1238,9 +1757,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>55</v>
@@ -1258,63 +1777,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>80</v>
-      </c>
       <c r="E20" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F20" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D23" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E23" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F23" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B24" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C24" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D24" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E24" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F24" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1329,18 +1888,17 @@
     <hyperlink ref="E16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="E17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="E18" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E21" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E23" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="E19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E22" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="E11" r:id="rId10" xr:uid="{4DF973CA-A9BD-4B96-9828-871F88A39A68}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{7DC18AC4-B390-4EE3-8440-C8D80F37A969}"/>
-    <hyperlink ref="E14" r:id="rId12" xr:uid="{34AE21EB-EE60-4CBD-9B70-FDB86CFA2091}"/>
-    <hyperlink ref="E15" r:id="rId13" xr:uid="{92FD24C7-086F-43F2-BD7D-80E09FFEDCC0}"/>
+    <hyperlink ref="E14" r:id="rId11" xr:uid="{34AE21EB-EE60-4CBD-9B70-FDB86CFA2091}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{92FD24C7-086F-43F2-BD7D-80E09FFEDCC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId14"/>
-  <drawing r:id="rId15"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>